--- a/grabDoll/config/artifact.xlsx
+++ b/grabDoll/config/artifact.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="44">
   <si>
     <t>攻击力</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -29,31 +29,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>rare</t>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
     <t>info</t>
-  </si>
-  <si>
-    <t>hero_0</t>
-  </si>
-  <si>
-    <t>你的东西是我的，我的东西还是我的，没有为什么！</t>
-  </si>
-  <si>
-    <t>hero_1</t>
-  </si>
-  <si>
-    <t>冬天你觉得冷了别害怕，有暖暖在你身旁～</t>
-  </si>
-  <si>
-    <t>hero_2</t>
-  </si>
-  <si>
-    <t>大头大头，下雨不愁。</t>
   </si>
   <si>
     <t>akt</t>
@@ -92,18 +71,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>稀有度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>图标</t>
     </r>
   </si>
@@ -140,7 +107,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero_3</t>
+    <t>升级所需要的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自寻死路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死之身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子 别跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你行你上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强行五五开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'20001':5,'20002':3,'20001':5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'20001':5,'20002':3,'20001':6}</t>
+  </si>
+  <si>
+    <t>{'20001':5,'20002':3,'20001':7}</t>
+  </si>
+  <si>
+    <t>{'20001':5,'20002':3,'20001':8}</t>
+  </si>
+  <si>
+    <t>{'20001':5,'20002':3,'20001':9}</t>
+  </si>
+  <si>
+    <t>{'20001':5,'20002':3,'20001':10}</t>
+  </si>
+  <si>
+    <t>{'20001':5,'20002':3,'20001':11}</t>
+  </si>
+  <si>
+    <t>{'20001':5,'20002':3,'20001':12}</t>
+  </si>
+  <si>
+    <t>{'20001':5,'20002':3,'20001':13}</t>
+  </si>
+  <si>
+    <t>{'20001':5,'20002':3,'20001':14}</t>
+  </si>
+  <si>
+    <t>{'20001':5,'20002':3,'20001':15}</t>
+  </si>
+  <si>
+    <t>{'20001':5,'20002':3,'20001':16}</t>
+  </si>
+  <si>
+    <t>{'20001':1,'20002':3,'20001':5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon_010</t>
+  </si>
+  <si>
+    <t>weapon_007</t>
+  </si>
+  <si>
+    <t>weapon_003</t>
+  </si>
+  <si>
+    <t>weapon_006</t>
+  </si>
+  <si>
+    <t>weapon_005</t>
+  </si>
+  <si>
+    <t>升级后的物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -204,6 +267,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -505,43 +570,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="54.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -549,116 +623,1322 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3">
         <v>20</v>
       </c>
-      <c r="C6" s="1">
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1">
+        <v>30005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>30005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1">
+        <v>30006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>30006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3">
+        <v>40</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1">
+        <v>30007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>30007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3">
+        <v>60</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>30008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3">
+        <v>80</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1">
+        <v>30009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>30009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3">
+        <v>120</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1">
+        <v>30010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>30010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3">
+        <v>150</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>30011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1">
+        <v>30012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>30012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1">
+        <v>30013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>30013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1">
+        <v>30014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>30014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="1">
+        <v>30015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>30015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="1">
+        <v>30016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>30016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="1">
+        <v>30017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>30017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3">
+        <v>30</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="1">
+        <v>30018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>30018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3">
+        <v>50</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="1">
+        <v>30019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>30019</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3">
+        <v>60</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1">
+        <v>30020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>30020</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>30021</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>30005</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="1">
+        <v>30022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>30022</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2">
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1">
+        <v>30023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>30023</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3">
+        <v>10</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="1">
+        <v>30024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>30024</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3">
         <v>15</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="1">
+        <v>30025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>30025</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3">
+        <v>20</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="1">
+        <v>30026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>30026</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3">
+        <v>30</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="1">
+        <v>30027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>30027</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3">
+        <v>50</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="1">
+        <v>30028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>30028</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3">
+        <v>100</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="1">
+        <v>30029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>30029</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="3">
+        <v>130</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="1">
+        <v>30030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>30030</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3">
+        <v>150</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>30031</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="3">
+        <v>10</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="1">
+        <v>30032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>30032</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="3">
+        <v>10</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="1">
+        <v>30033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>30033</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="3">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="1">
+        <v>30034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>30034</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="3">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="1">
+        <v>30035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>30035</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="1">
+        <v>30036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>30036</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="1">
+        <v>30037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>30037</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="3">
+        <v>10</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="1">
+        <v>30038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>30038</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="3">
+        <v>10</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="1">
+        <v>30039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>30039</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="3">
+        <v>10</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="1">
+        <v>30040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>30040</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="3">
+        <v>10</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>30041</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="2">
+        <v>30042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>30042</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="4">
+        <v>5</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="2">
+        <v>30043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>30043</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="4">
+        <v>15</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="2">
+        <v>30044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>30044</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="4">
+        <v>30</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="2">
+        <v>30045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>30045</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="4">
+        <v>50</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="2">
+        <v>30046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>30046</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="4">
+        <v>75</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="2">
+        <v>30047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>30047</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="4">
+        <v>100</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="2">
+        <v>30048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>30048</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="2">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="4">
+        <v>130</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="2">
+        <v>30049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>30049</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2">
+        <v>9</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="4">
+        <v>170</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="2">
+        <v>30050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>30050</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="4">
+        <v>250</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" s="2">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grabDoll/config/artifact.xlsx
+++ b/grabDoll/config/artifact.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="81">
   <si>
     <t>攻击力</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,47 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'20001':5,'20002':3,'20001':5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'20001':5,'20002':3,'20001':6}</t>
-  </si>
-  <si>
-    <t>{'20001':5,'20002':3,'20001':7}</t>
-  </si>
-  <si>
-    <t>{'20001':5,'20002':3,'20001':8}</t>
-  </si>
-  <si>
-    <t>{'20001':5,'20002':3,'20001':9}</t>
-  </si>
-  <si>
-    <t>{'20001':5,'20002':3,'20001':10}</t>
-  </si>
-  <si>
-    <t>{'20001':5,'20002':3,'20001':11}</t>
-  </si>
-  <si>
-    <t>{'20001':5,'20002':3,'20001':12}</t>
-  </si>
-  <si>
-    <t>{'20001':5,'20002':3,'20001':13}</t>
-  </si>
-  <si>
-    <t>{'20001':5,'20002':3,'20001':14}</t>
-  </si>
-  <si>
-    <t>{'20001':5,'20002':3,'20001':15}</t>
-  </si>
-  <si>
-    <t>{'20001':5,'20002':3,'20001':16}</t>
-  </si>
-  <si>
-    <t>{'20001':1,'20002':3,'20001':5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon_010</t>
   </si>
   <si>
@@ -205,6 +164,162 @@
   <si>
     <t>next_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20003":5,"20004":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20003":5,"20004":2}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20003":5,"20004":3}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20003":5,"20004":4}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20003":5,"20004":5}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20003":5,"20004":6}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20003":5,"20004":7}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20003":5,"20004":8}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20003":5,"20004":9}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20003":5,"20004":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"20004":1,"20005":3,"20006":1,"20007":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"20004":1,"20005":3,"20006":1,"20007":2}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20005":3,"20006":1,"20007":3}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20005":3,"20006":1,"20007":4}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20005":3,"20006":1,"20007":5}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20005":3,"20006":1,"20007":6}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20005":3,"20006":1,"20007":7}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20005":3,"20006":1,"20007":8}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20005":3,"20006":1,"20007":9}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20005":3,"20006":1,"20007":10}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20005":3,"20006":1,"20007":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"20001":1,"20005":3,"20006":1,"20007":2}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20005":3,"20006":1,"20007":3}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20005":3,"20006":1,"20007":4}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20005":3,"20006":1,"20007":5}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20005":3,"20006":1,"20007":6}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20005":3,"20006":1,"20007":7}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20005":3,"20006":1,"20007":8}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20005":3,"20006":1,"20007":9}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20005":3,"20006":1,"20007":10}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20006":1,"20007":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20006":1,"20007":2}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20006":1,"20007":3}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20006":1,"20007":4}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20006":1,"20007":5}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20006":1,"20007":6}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20006":1,"20007":7}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20006":1,"20007":8}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20006":1,"20007":9}</t>
+  </si>
+  <si>
+    <t>{"20001":1,"20002":3,"20006":1,"20007":10}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20002":3,"20006":1,"20005":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"20004":1,"20002":3,"20006":1,"20005":2}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20002":3,"20006":1,"20005":3}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20002":3,"20006":1,"20005":4}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20002":3,"20006":1,"20005":5}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20002":3,"20006":1,"20005":6}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20002":3,"20006":1,"20005":7}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20002":3,"20006":1,"20005":8}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20002":3,"20006":1,"20005":9}</t>
+  </si>
+  <si>
+    <t>{"20004":1,"20002":3,"20006":1,"20005":10}</t>
   </si>
 </sst>
 </file>
@@ -572,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,7 +699,7 @@
     <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="44.25" style="6" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -612,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -638,7 +753,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -652,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
@@ -661,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1">
         <v>30002</v>
@@ -678,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
@@ -687,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1">
         <v>30003</v>
@@ -704,7 +819,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
@@ -713,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1">
         <v>30004</v>
@@ -730,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
@@ -739,7 +854,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1">
         <v>30005</v>
@@ -756,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
@@ -765,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1">
         <v>30006</v>
@@ -782,7 +897,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
@@ -791,7 +906,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1">
         <v>30007</v>
@@ -808,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
@@ -817,7 +932,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1">
         <v>30008</v>
@@ -834,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
@@ -843,7 +958,7 @@
         <v>80</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1">
         <v>30009</v>
@@ -860,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
@@ -869,7 +984,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1">
         <v>30010</v>
@@ -886,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>17</v>
@@ -895,7 +1010,7 @@
         <v>150</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2">
         <v>-1</v>
@@ -912,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -921,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H13" s="1">
         <v>30012</v>
@@ -938,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -947,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1">
         <v>30013</v>
@@ -964,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>21</v>
@@ -973,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1">
         <v>30014</v>
@@ -990,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>21</v>
@@ -999,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H16" s="1">
         <v>30015</v>
@@ -1016,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>21</v>
@@ -1025,7 +1140,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H17" s="1">
         <v>30016</v>
@@ -1042,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>21</v>
@@ -1051,7 +1166,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H18" s="1">
         <v>30017</v>
@@ -1068,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
@@ -1077,7 +1192,7 @@
         <v>30</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H19" s="1">
         <v>30018</v>
@@ -1094,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
@@ -1103,7 +1218,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H20" s="1">
         <v>30019</v>
@@ -1120,7 +1235,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>21</v>
@@ -1129,7 +1244,7 @@
         <v>60</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1">
         <v>30020</v>
@@ -1146,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
@@ -1155,7 +1270,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H22" s="2">
         <v>-1</v>
@@ -1172,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>20</v>
@@ -1181,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H23" s="1">
         <v>30022</v>
@@ -1198,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>20</v>
@@ -1207,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H24" s="1">
         <v>30023</v>
@@ -1224,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>20</v>
@@ -1233,7 +1348,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H25" s="1">
         <v>30024</v>
@@ -1250,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>20</v>
@@ -1259,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="H26" s="1">
         <v>30025</v>
@@ -1276,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>20</v>
@@ -1285,7 +1400,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H27" s="1">
         <v>30026</v>
@@ -1302,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>20</v>
@@ -1311,7 +1426,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H28" s="1">
         <v>30027</v>
@@ -1328,7 +1443,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>20</v>
@@ -1337,7 +1452,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H29" s="1">
         <v>30028</v>
@@ -1354,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>20</v>
@@ -1363,7 +1478,7 @@
         <v>100</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H30" s="1">
         <v>30029</v>
@@ -1380,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>20</v>
@@ -1389,7 +1504,7 @@
         <v>130</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H31" s="1">
         <v>30030</v>
@@ -1406,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>20</v>
@@ -1415,7 +1530,7 @@
         <v>150</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H32" s="2">
         <v>-1</v>
@@ -1432,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>18</v>
@@ -1441,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H33" s="1">
         <v>30032</v>
@@ -1458,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>18</v>
@@ -1467,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H34" s="1">
         <v>30033</v>
@@ -1484,7 +1599,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>18</v>
@@ -1493,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H35" s="1">
         <v>30034</v>
@@ -1510,7 +1625,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>18</v>
@@ -1519,7 +1634,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="H36" s="1">
         <v>30035</v>
@@ -1536,7 +1651,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>18</v>
@@ -1545,7 +1660,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="H37" s="1">
         <v>30036</v>
@@ -1562,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>18</v>
@@ -1571,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="H38" s="1">
         <v>30037</v>
@@ -1588,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>18</v>
@@ -1597,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="H39" s="1">
         <v>30038</v>
@@ -1614,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>18</v>
@@ -1623,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="H40" s="1">
         <v>30039</v>
@@ -1640,7 +1755,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>18</v>
@@ -1649,7 +1764,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="H41" s="1">
         <v>30040</v>
@@ -1666,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>18</v>
@@ -1675,7 +1790,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H42" s="2">
         <v>-1</v>
@@ -1692,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>19</v>
@@ -1701,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H43" s="2">
         <v>30042</v>
@@ -1718,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>19</v>
@@ -1727,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H44" s="2">
         <v>30043</v>
@@ -1744,7 +1859,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>19</v>
@@ -1753,7 +1868,7 @@
         <v>15</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H45" s="2">
         <v>30044</v>
@@ -1770,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>19</v>
@@ -1779,7 +1894,7 @@
         <v>30</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="H46" s="2">
         <v>30045</v>
@@ -1796,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>19</v>
@@ -1805,7 +1920,7 @@
         <v>50</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="H47" s="2">
         <v>30046</v>
@@ -1822,7 +1937,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>19</v>
@@ -1831,7 +1946,7 @@
         <v>75</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H48" s="2">
         <v>30047</v>
@@ -1848,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>19</v>
@@ -1857,7 +1972,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="H49" s="2">
         <v>30048</v>
@@ -1874,7 +1989,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>19</v>
@@ -1883,7 +1998,7 @@
         <v>130</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="H50" s="2">
         <v>30049</v>
@@ -1900,7 +2015,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>19</v>
@@ -1909,7 +2024,7 @@
         <v>170</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="H51" s="2">
         <v>30050</v>
@@ -1926,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>19</v>
@@ -1935,7 +2050,7 @@
         <v>250</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="H52" s="2">
         <v>-1</v>

--- a/grabDoll/config/artifact.xlsx
+++ b/grabDoll/config/artifact.xlsx
@@ -87,10 +87,6 @@
     </r>
   </si>
   <si>
-    <t>埃辛诺斯之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方天画戟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,21 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon_010</t>
-  </si>
-  <si>
-    <t>weapon_007</t>
-  </si>
-  <si>
-    <t>weapon_003</t>
-  </si>
-  <si>
-    <t>weapon_006</t>
-  </si>
-  <si>
-    <t>weapon_005</t>
-  </si>
-  <si>
     <t>升级后的物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,6 +301,25 @@
   </si>
   <si>
     <t>{"20004":1,"20002":3,"20006":1,"20005":10}</t>
+  </si>
+  <si>
+    <t>item_0002</t>
+  </si>
+  <si>
+    <t>浴血红鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_0005</t>
+  </si>
+  <si>
+    <t>item_0006</t>
+  </si>
+  <si>
+    <t>item_0004</t>
+  </si>
+  <si>
+    <t>item_0003</t>
   </si>
 </sst>
 </file>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -750,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -761,22 +761,22 @@
         <v>30001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1">
         <v>30002</v>
@@ -787,22 +787,22 @@
         <v>30002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1">
         <v>30003</v>
@@ -813,22 +813,22 @@
         <v>30003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1">
         <v>30004</v>
@@ -839,22 +839,22 @@
         <v>30004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3">
         <v>20</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1">
         <v>30005</v>
@@ -865,22 +865,22 @@
         <v>30005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3">
         <v>25</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1">
         <v>30006</v>
@@ -891,22 +891,22 @@
         <v>30006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3">
         <v>40</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1">
         <v>30007</v>
@@ -917,22 +917,22 @@
         <v>30007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3">
         <v>60</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
         <v>30008</v>
@@ -943,22 +943,22 @@
         <v>30008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3">
         <v>80</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1">
         <v>30009</v>
@@ -969,22 +969,22 @@
         <v>30009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3">
         <v>120</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1">
         <v>30010</v>
@@ -995,22 +995,22 @@
         <v>30010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3">
         <v>150</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2">
         <v>-1</v>
@@ -1021,22 +1021,22 @@
         <v>30011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1">
         <v>30012</v>
@@ -1047,22 +1047,22 @@
         <v>30012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1">
         <v>30013</v>
@@ -1073,22 +1073,22 @@
         <v>30013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3">
         <v>5</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H15" s="1">
         <v>30014</v>
@@ -1099,22 +1099,22 @@
         <v>30014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="3">
         <v>10</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1">
         <v>30015</v>
@@ -1125,22 +1125,22 @@
         <v>30015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H17" s="1">
         <v>30016</v>
@@ -1151,22 +1151,22 @@
         <v>30016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="3">
         <v>15</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H18" s="1">
         <v>30017</v>
@@ -1177,22 +1177,22 @@
         <v>30017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="3">
         <v>30</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H19" s="1">
         <v>30018</v>
@@ -1203,22 +1203,22 @@
         <v>30018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="3">
         <v>50</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H20" s="1">
         <v>30019</v>
@@ -1229,22 +1229,22 @@
         <v>30019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1">
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3">
         <v>60</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1">
         <v>30020</v>
@@ -1255,22 +1255,22 @@
         <v>30020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H22" s="2">
         <v>-1</v>
@@ -1281,22 +1281,22 @@
         <v>30021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H23" s="1">
         <v>30022</v>
@@ -1307,22 +1307,22 @@
         <v>30022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H24" s="1">
         <v>30023</v>
@@ -1333,22 +1333,22 @@
         <v>30023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="3">
         <v>10</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H25" s="1">
         <v>30024</v>
@@ -1359,22 +1359,22 @@
         <v>30024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="3">
         <v>15</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H26" s="1">
         <v>30025</v>
@@ -1385,22 +1385,22 @@
         <v>30025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="3">
         <v>20</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H27" s="1">
         <v>30026</v>
@@ -1411,22 +1411,22 @@
         <v>30026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="3">
         <v>30</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H28" s="1">
         <v>30027</v>
@@ -1437,22 +1437,22 @@
         <v>30027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="3">
         <v>50</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H29" s="1">
         <v>30028</v>
@@ -1463,22 +1463,22 @@
         <v>30028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" s="3">
         <v>100</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H30" s="1">
         <v>30029</v>
@@ -1489,22 +1489,22 @@
         <v>30029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" s="3">
         <v>130</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H31" s="1">
         <v>30030</v>
@@ -1515,22 +1515,22 @@
         <v>30030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" s="3">
         <v>150</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H32" s="2">
         <v>-1</v>
@@ -1541,22 +1541,22 @@
         <v>30031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="3">
         <v>10</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H33" s="1">
         <v>30032</v>
@@ -1567,22 +1567,22 @@
         <v>30032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="3">
         <v>10</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H34" s="1">
         <v>30033</v>
@@ -1593,22 +1593,22 @@
         <v>30033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="3">
         <v>10</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H35" s="1">
         <v>30034</v>
@@ -1619,22 +1619,22 @@
         <v>30034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="3">
         <v>10</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H36" s="1">
         <v>30035</v>
@@ -1645,22 +1645,22 @@
         <v>30035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="3">
         <v>10</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H37" s="1">
         <v>30036</v>
@@ -1671,22 +1671,22 @@
         <v>30036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="3">
         <v>10</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H38" s="1">
         <v>30037</v>
@@ -1697,22 +1697,22 @@
         <v>30037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1">
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="3">
         <v>10</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H39" s="1">
         <v>30038</v>
@@ -1723,22 +1723,22 @@
         <v>30038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40" s="3">
         <v>10</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H40" s="1">
         <v>30039</v>
@@ -1749,22 +1749,22 @@
         <v>30039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1">
         <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="3">
         <v>10</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H41" s="1">
         <v>30040</v>
@@ -1775,22 +1775,22 @@
         <v>30040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1">
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" s="3">
         <v>10</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H42" s="2">
         <v>-1</v>
@@ -1801,22 +1801,22 @@
         <v>30041</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H43" s="2">
         <v>30042</v>
@@ -1827,22 +1827,22 @@
         <v>30042</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" s="4">
         <v>5</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H44" s="2">
         <v>30043</v>
@@ -1853,22 +1853,22 @@
         <v>30043</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45" s="4">
         <v>15</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H45" s="2">
         <v>30044</v>
@@ -1879,22 +1879,22 @@
         <v>30044</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46" s="4">
         <v>30</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H46" s="2">
         <v>30045</v>
@@ -1905,22 +1905,22 @@
         <v>30045</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F47" s="4">
         <v>50</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H47" s="2">
         <v>30046</v>
@@ -1931,22 +1931,22 @@
         <v>30046</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="2">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F48" s="4">
         <v>75</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H48" s="2">
         <v>30047</v>
@@ -1957,22 +1957,22 @@
         <v>30047</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2">
         <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F49" s="4">
         <v>100</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H49" s="2">
         <v>30048</v>
@@ -1983,22 +1983,22 @@
         <v>30048</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F50" s="4">
         <v>130</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H50" s="2">
         <v>30049</v>
@@ -2009,22 +2009,22 @@
         <v>30049</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" s="2">
         <v>9</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F51" s="4">
         <v>170</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H51" s="2">
         <v>30050</v>
@@ -2035,22 +2035,22 @@
         <v>30050</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="2">
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F52" s="4">
         <v>250</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H52" s="2">
         <v>-1</v>

--- a/grabDoll/config/artifact.xlsx
+++ b/grabDoll/config/artifact.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="41">
   <si>
     <t>攻击力</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,162 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"20001":1,"20002":3,"20003":5,"20004":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20003":5,"20004":2}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20003":5,"20004":3}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20003":5,"20004":4}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20003":5,"20004":5}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20003":5,"20004":6}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20003":5,"20004":7}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20003":5,"20004":8}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20003":5,"20004":9}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20003":5,"20004":10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"20004":1,"20005":3,"20006":1,"20007":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"20004":1,"20005":3,"20006":1,"20007":2}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20005":3,"20006":1,"20007":3}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20005":3,"20006":1,"20007":4}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20005":3,"20006":1,"20007":5}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20005":3,"20006":1,"20007":6}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20005":3,"20006":1,"20007":7}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20005":3,"20006":1,"20007":8}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20005":3,"20006":1,"20007":9}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20005":3,"20006":1,"20007":10}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20005":3,"20006":1,"20007":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"20001":1,"20005":3,"20006":1,"20007":2}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20005":3,"20006":1,"20007":3}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20005":3,"20006":1,"20007":4}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20005":3,"20006":1,"20007":5}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20005":3,"20006":1,"20007":6}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20005":3,"20006":1,"20007":7}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20005":3,"20006":1,"20007":8}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20005":3,"20006":1,"20007":9}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20005":3,"20006":1,"20007":10}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20006":1,"20007":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20006":1,"20007":2}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20006":1,"20007":3}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20006":1,"20007":4}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20006":1,"20007":5}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20006":1,"20007":6}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20006":1,"20007":7}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20006":1,"20007":8}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20006":1,"20007":9}</t>
-  </si>
-  <si>
-    <t>{"20001":1,"20002":3,"20006":1,"20007":10}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20002":3,"20006":1,"20005":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"20004":1,"20002":3,"20006":1,"20005":2}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20002":3,"20006":1,"20005":3}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20002":3,"20006":1,"20005":4}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20002":3,"20006":1,"20005":5}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20002":3,"20006":1,"20005":6}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20002":3,"20006":1,"20005":7}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20002":3,"20006":1,"20005":8}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20002":3,"20006":1,"20005":9}</t>
-  </si>
-  <si>
-    <t>{"20004":1,"20002":3,"20006":1,"20005":10}</t>
-  </si>
-  <si>
     <t>item_0002</t>
   </si>
   <si>
@@ -320,6 +164,37 @@
   </si>
   <si>
     <t>item_0003</t>
+  </si>
+  <si>
+    <t>{"20010":1,"20011":3,"20012":5,"20013":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"20010":1,"20011":3,"20012":5,"20013":2}</t>
+  </si>
+  <si>
+    <t>{"20010":1,"20011":3,"20012":5,"20013":3}</t>
+  </si>
+  <si>
+    <t>{"20010":1,"20011":3,"20012":5,"20013":4}</t>
+  </si>
+  <si>
+    <t>{"20010":1,"20011":3,"20012":5,"20013":5}</t>
+  </si>
+  <si>
+    <t>{"20010":1,"20011":3,"20012":5,"20013":6}</t>
+  </si>
+  <si>
+    <t>{"20010":1,"20011":3,"20012":5,"20013":7}</t>
+  </si>
+  <si>
+    <t>{"20010":1,"20011":3,"20012":5,"20013":8}</t>
+  </si>
+  <si>
+    <t>{"20010":1,"20011":3,"20012":5,"20013":9}</t>
+  </si>
+  <si>
+    <t>{"20010":1,"20011":3,"20012":5,"20013":10}</t>
   </si>
 </sst>
 </file>
@@ -687,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -761,13 +636,13 @@
         <v>30001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
@@ -776,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1">
         <v>30002</v>
@@ -787,13 +662,13 @@
         <v>30002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -802,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1">
         <v>30003</v>
@@ -813,13 +688,13 @@
         <v>30003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
@@ -828,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1">
         <v>30004</v>
@@ -839,13 +714,13 @@
         <v>30004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
@@ -854,7 +729,7 @@
         <v>20</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1">
         <v>30005</v>
@@ -865,13 +740,13 @@
         <v>30005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
@@ -880,7 +755,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1">
         <v>30006</v>
@@ -891,13 +766,13 @@
         <v>30006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
@@ -906,7 +781,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1">
         <v>30007</v>
@@ -917,13 +792,13 @@
         <v>30007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
@@ -932,7 +807,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1">
         <v>30008</v>
@@ -943,13 +818,13 @@
         <v>30008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -958,7 +833,7 @@
         <v>80</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1">
         <v>30009</v>
@@ -969,13 +844,13 @@
         <v>30009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
@@ -984,7 +859,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1">
         <v>30010</v>
@@ -995,13 +870,13 @@
         <v>30010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
@@ -1010,7 +885,7 @@
         <v>150</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2">
         <v>-1</v>
@@ -1027,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
@@ -1036,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13" s="1">
         <v>30012</v>
@@ -1053,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -1062,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1">
         <v>30013</v>
@@ -1079,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
@@ -1088,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15" s="1">
         <v>30014</v>
@@ -1105,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -1114,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H16" s="1">
         <v>30015</v>
@@ -1131,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -1140,7 +1015,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H17" s="1">
         <v>30016</v>
@@ -1157,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>20</v>
@@ -1166,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H18" s="1">
         <v>30017</v>
@@ -1183,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
@@ -1192,7 +1067,7 @@
         <v>30</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H19" s="1">
         <v>30018</v>
@@ -1209,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>20</v>
@@ -1218,7 +1093,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1">
         <v>30019</v>
@@ -1235,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>20</v>
@@ -1244,7 +1119,7 @@
         <v>60</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H21" s="1">
         <v>30020</v>
@@ -1261,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>20</v>
@@ -1270,7 +1145,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H22" s="2">
         <v>-1</v>
@@ -1287,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>19</v>
@@ -1296,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H23" s="1">
         <v>30022</v>
@@ -1313,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>19</v>
@@ -1322,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H24" s="1">
         <v>30023</v>
@@ -1339,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>19</v>
@@ -1348,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H25" s="1">
         <v>30024</v>
@@ -1365,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>19</v>
@@ -1374,7 +1249,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H26" s="1">
         <v>30025</v>
@@ -1391,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>19</v>
@@ -1400,7 +1275,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H27" s="1">
         <v>30026</v>
@@ -1417,7 +1292,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>19</v>
@@ -1426,7 +1301,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H28" s="1">
         <v>30027</v>
@@ -1443,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>19</v>
@@ -1452,7 +1327,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H29" s="1">
         <v>30028</v>
@@ -1469,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>19</v>
@@ -1478,7 +1353,7 @@
         <v>100</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H30" s="1">
         <v>30029</v>
@@ -1495,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>19</v>
@@ -1504,7 +1379,7 @@
         <v>130</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1">
         <v>30030</v>
@@ -1521,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>19</v>
@@ -1530,7 +1405,7 @@
         <v>150</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2">
         <v>-1</v>
@@ -1547,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>17</v>
@@ -1556,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H33" s="1">
         <v>30032</v>
@@ -1573,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>17</v>
@@ -1582,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="H34" s="1">
         <v>30033</v>
@@ -1599,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>17</v>
@@ -1608,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H35" s="1">
         <v>30034</v>
@@ -1625,7 +1500,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>17</v>
@@ -1634,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H36" s="1">
         <v>30035</v>
@@ -1651,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>17</v>
@@ -1660,7 +1535,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="H37" s="1">
         <v>30036</v>
@@ -1677,7 +1552,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>17</v>
@@ -1686,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H38" s="1">
         <v>30037</v>
@@ -1703,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>17</v>
@@ -1712,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H39" s="1">
         <v>30038</v>
@@ -1729,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>17</v>
@@ -1738,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H40" s="1">
         <v>30039</v>
@@ -1755,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>17</v>
@@ -1764,7 +1639,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="H41" s="1">
         <v>30040</v>
@@ -1781,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>17</v>
@@ -1790,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H42" s="2">
         <v>-1</v>
@@ -1807,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>18</v>
@@ -1816,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="H43" s="2">
         <v>30042</v>
@@ -1833,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>18</v>
@@ -1842,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H44" s="2">
         <v>30043</v>
@@ -1859,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>18</v>
@@ -1868,7 +1743,7 @@
         <v>15</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H45" s="2">
         <v>30044</v>
@@ -1885,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>18</v>
@@ -1894,7 +1769,7 @@
         <v>30</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H46" s="2">
         <v>30045</v>
@@ -1911,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>18</v>
@@ -1920,7 +1795,7 @@
         <v>50</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="H47" s="2">
         <v>30046</v>
@@ -1937,7 +1812,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>18</v>
@@ -1946,7 +1821,7 @@
         <v>75</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="H48" s="2">
         <v>30047</v>
@@ -1963,7 +1838,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>18</v>
@@ -1972,7 +1847,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="H49" s="2">
         <v>30048</v>
@@ -1989,7 +1864,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>18</v>
@@ -1998,7 +1873,7 @@
         <v>130</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="H50" s="2">
         <v>30049</v>
@@ -2015,7 +1890,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>18</v>
@@ -2024,7 +1899,7 @@
         <v>170</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="H51" s="2">
         <v>30050</v>
@@ -2041,7 +1916,7 @@
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>18</v>
@@ -2050,7 +1925,7 @@
         <v>250</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H52" s="2">
         <v>-1</v>

--- a/grabDoll/config/artifact.xlsx
+++ b/grabDoll/config/artifact.xlsx
@@ -35,10 +35,6 @@
     <t>info</t>
   </si>
   <si>
-    <t>akt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -195,6 +191,10 @@
   </si>
   <si>
     <t>{"20010":1,"20011":3,"20012":5,"20013":10}</t>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -581,28 +581,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -613,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -622,13 +622,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -636,22 +636,22 @@
         <v>30001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1">
         <v>30002</v>
@@ -662,22 +662,22 @@
         <v>30002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1">
         <v>30003</v>
@@ -688,22 +688,22 @@
         <v>30003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
         <v>10</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1">
         <v>30004</v>
@@ -714,22 +714,22 @@
         <v>30004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3">
         <v>20</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1">
         <v>30005</v>
@@ -740,22 +740,22 @@
         <v>30005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3">
         <v>25</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1">
         <v>30006</v>
@@ -766,22 +766,22 @@
         <v>30006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3">
         <v>40</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1">
         <v>30007</v>
@@ -792,22 +792,22 @@
         <v>30007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3">
         <v>60</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1">
         <v>30008</v>
@@ -818,22 +818,22 @@
         <v>30008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3">
         <v>80</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1">
         <v>30009</v>
@@ -844,22 +844,22 @@
         <v>30009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3">
         <v>120</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1">
         <v>30010</v>
@@ -870,22 +870,22 @@
         <v>30010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3">
         <v>150</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2">
         <v>-1</v>
@@ -896,22 +896,22 @@
         <v>30011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1">
         <v>30012</v>
@@ -922,22 +922,22 @@
         <v>30012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1">
         <v>30013</v>
@@ -948,22 +948,22 @@
         <v>30013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="3">
         <v>5</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="1">
         <v>30014</v>
@@ -974,22 +974,22 @@
         <v>30014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="3">
         <v>10</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="1">
         <v>30015</v>
@@ -1000,22 +1000,22 @@
         <v>30015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="3">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1">
         <v>30016</v>
@@ -1026,22 +1026,22 @@
         <v>30016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="3">
         <v>15</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="1">
         <v>30017</v>
@@ -1052,22 +1052,22 @@
         <v>30017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="3">
         <v>30</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="1">
         <v>30018</v>
@@ -1078,22 +1078,22 @@
         <v>30018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="3">
         <v>50</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" s="1">
         <v>30019</v>
@@ -1104,22 +1104,22 @@
         <v>30019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1">
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="3">
         <v>60</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="1">
         <v>30020</v>
@@ -1130,22 +1130,22 @@
         <v>30020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2">
         <v>-1</v>
@@ -1156,22 +1156,22 @@
         <v>30021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1">
         <v>30022</v>
@@ -1182,22 +1182,22 @@
         <v>30022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1">
         <v>30023</v>
@@ -1208,22 +1208,22 @@
         <v>30023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" s="3">
         <v>10</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" s="1">
         <v>30024</v>
@@ -1234,22 +1234,22 @@
         <v>30024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="3">
         <v>15</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" s="1">
         <v>30025</v>
@@ -1260,22 +1260,22 @@
         <v>30025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="3">
         <v>20</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="1">
         <v>30026</v>
@@ -1286,22 +1286,22 @@
         <v>30026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="3">
         <v>30</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="1">
         <v>30027</v>
@@ -1312,22 +1312,22 @@
         <v>30027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="3">
         <v>50</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="1">
         <v>30028</v>
@@ -1338,22 +1338,22 @@
         <v>30028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3">
         <v>100</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" s="1">
         <v>30029</v>
@@ -1364,22 +1364,22 @@
         <v>30029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="3">
         <v>130</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31" s="1">
         <v>30030</v>
@@ -1390,22 +1390,22 @@
         <v>30030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="3">
         <v>150</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="2">
         <v>-1</v>
@@ -1416,22 +1416,22 @@
         <v>30031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="3">
         <v>10</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1">
         <v>30032</v>
@@ -1442,22 +1442,22 @@
         <v>30032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="3">
         <v>10</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1">
         <v>30033</v>
@@ -1468,22 +1468,22 @@
         <v>30033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="3">
         <v>10</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35" s="1">
         <v>30034</v>
@@ -1494,22 +1494,22 @@
         <v>30034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="3">
         <v>10</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" s="1">
         <v>30035</v>
@@ -1520,22 +1520,22 @@
         <v>30035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="3">
         <v>10</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H37" s="1">
         <v>30036</v>
@@ -1546,22 +1546,22 @@
         <v>30036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1">
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="3">
         <v>10</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38" s="1">
         <v>30037</v>
@@ -1572,22 +1572,22 @@
         <v>30037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1">
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" s="3">
         <v>10</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" s="1">
         <v>30038</v>
@@ -1598,22 +1598,22 @@
         <v>30038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="3">
         <v>10</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40" s="1">
         <v>30039</v>
@@ -1624,22 +1624,22 @@
         <v>30039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1">
         <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="3">
         <v>10</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="1">
         <v>30040</v>
@@ -1650,22 +1650,22 @@
         <v>30040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="1">
         <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" s="3">
         <v>10</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H42" s="2">
         <v>-1</v>
@@ -1676,22 +1676,22 @@
         <v>30041</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" s="4">
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H43" s="2">
         <v>30042</v>
@@ -1702,22 +1702,22 @@
         <v>30042</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4">
         <v>5</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H44" s="2">
         <v>30043</v>
@@ -1728,22 +1728,22 @@
         <v>30043</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="4">
         <v>15</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H45" s="2">
         <v>30044</v>
@@ -1754,22 +1754,22 @@
         <v>30044</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F46" s="4">
         <v>30</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46" s="2">
         <v>30045</v>
@@ -1780,22 +1780,22 @@
         <v>30045</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="2">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" s="4">
         <v>50</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H47" s="2">
         <v>30046</v>
@@ -1806,22 +1806,22 @@
         <v>30046</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F48" s="4">
         <v>75</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48" s="2">
         <v>30047</v>
@@ -1832,22 +1832,22 @@
         <v>30047</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2">
         <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F49" s="4">
         <v>100</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49" s="2">
         <v>30048</v>
@@ -1858,22 +1858,22 @@
         <v>30048</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="2">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50" s="4">
         <v>130</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50" s="2">
         <v>30049</v>
@@ -1884,22 +1884,22 @@
         <v>30049</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="2">
         <v>9</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51" s="4">
         <v>170</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H51" s="2">
         <v>30050</v>
@@ -1910,22 +1910,22 @@
         <v>30050</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2">
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F52" s="4">
         <v>250</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H52" s="2">
         <v>-1</v>

--- a/grabDoll/config/artifact.xlsx
+++ b/grabDoll/config/artifact.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1428,7 +1428,7 @@
         <v>16</v>
       </c>
       <c r="F33" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>30</v>
@@ -1454,7 +1454,7 @@
         <v>16</v>
       </c>
       <c r="F34" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>31</v>
@@ -1480,7 +1480,7 @@
         <v>16</v>
       </c>
       <c r="F35" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>32</v>
@@ -1506,7 +1506,7 @@
         <v>16</v>
       </c>
       <c r="F36" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>33</v>
@@ -1532,7 +1532,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>34</v>
@@ -1584,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>36</v>
@@ -1610,7 +1610,7 @@
         <v>16</v>
       </c>
       <c r="F40" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>37</v>
@@ -1636,7 +1636,7 @@
         <v>16</v>
       </c>
       <c r="F41" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>38</v>
@@ -1662,7 +1662,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>39</v>

--- a/grabDoll/config/artifact.xlsx
+++ b/grabDoll/config/artifact.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -200,8 +200,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,17 +223,32 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -243,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -259,6 +274,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -274,7 +292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -348,7 +366,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -383,7 +400,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,14 +575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="2" customWidth="1"/>
@@ -579,7 +595,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -605,7 +621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -631,7 +647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
@@ -647,8 +663,8 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
+      <c r="F3" s="7">
+        <v>168</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>30</v>
@@ -657,7 +673,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
@@ -673,8 +689,8 @@
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3">
-        <v>5</v>
+      <c r="F4" s="7">
+        <v>199</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>31</v>
@@ -683,7 +699,7 @@
         <v>30003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>30003</v>
       </c>
@@ -699,8 +715,8 @@
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3">
-        <v>10</v>
+      <c r="F5" s="7">
+        <v>266</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>32</v>
@@ -709,7 +725,7 @@
         <v>30004</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>30004</v>
       </c>
@@ -725,8 +741,8 @@
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3">
-        <v>20</v>
+      <c r="F6" s="7">
+        <v>308</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>33</v>
@@ -735,7 +751,7 @@
         <v>30005</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>30005</v>
       </c>
@@ -751,8 +767,8 @@
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3">
-        <v>25</v>
+      <c r="F7" s="7">
+        <v>415</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>34</v>
@@ -761,7 +777,7 @@
         <v>30006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>30006</v>
       </c>
@@ -777,8 +793,8 @@
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="3">
-        <v>40</v>
+      <c r="F8" s="7">
+        <v>506</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>35</v>
@@ -787,7 +803,7 @@
         <v>30007</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>30007</v>
       </c>
@@ -803,8 +819,8 @@
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3">
-        <v>60</v>
+      <c r="F9" s="7">
+        <v>688</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>36</v>
@@ -813,7 +829,7 @@
         <v>30008</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>30008</v>
       </c>
@@ -829,8 +845,8 @@
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3">
-        <v>80</v>
+      <c r="F10" s="7">
+        <v>820</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>37</v>
@@ -839,7 +855,7 @@
         <v>30009</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>30009</v>
       </c>
@@ -855,8 +871,8 @@
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3">
-        <v>120</v>
+      <c r="F11" s="7">
+        <v>1080</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>38</v>
@@ -865,7 +881,7 @@
         <v>30010</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>30010</v>
       </c>
@@ -881,8 +897,8 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="3">
-        <v>150</v>
+      <c r="F12" s="7">
+        <v>1280</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>39</v>
@@ -891,7 +907,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>30011</v>
       </c>
@@ -908,7 +924,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>30</v>
@@ -917,7 +933,7 @@
         <v>30012</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>30012</v>
       </c>
@@ -934,7 +950,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>31</v>
@@ -943,7 +959,7 @@
         <v>30013</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>30013</v>
       </c>
@@ -960,7 +976,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>256</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>32</v>
@@ -969,7 +985,7 @@
         <v>30014</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>30014</v>
       </c>
@@ -986,7 +1002,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="3">
-        <v>10</v>
+        <v>297</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>33</v>
@@ -995,7 +1011,7 @@
         <v>30015</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>30015</v>
       </c>
@@ -1012,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="3">
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>34</v>
@@ -1021,7 +1037,7 @@
         <v>30016</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>30016</v>
       </c>
@@ -1038,7 +1054,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="3">
-        <v>15</v>
+        <v>488</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>35</v>
@@ -1047,7 +1063,7 @@
         <v>30017</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>30017</v>
       </c>
@@ -1064,7 +1080,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="3">
-        <v>30</v>
+        <v>663</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>36</v>
@@ -1073,7 +1089,7 @@
         <v>30018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>30018</v>
       </c>
@@ -1090,7 +1106,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="3">
-        <v>50</v>
+        <v>791</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>37</v>
@@ -1099,7 +1115,7 @@
         <v>30019</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>30019</v>
       </c>
@@ -1116,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="3">
-        <v>60</v>
+        <v>1042</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>38</v>
@@ -1125,7 +1141,7 @@
         <v>30020</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>30020</v>
       </c>
@@ -1142,7 +1158,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>1235</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>39</v>
@@ -1151,7 +1167,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>30021</v>
       </c>
@@ -1168,7 +1184,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>30</v>
@@ -1177,7 +1193,7 @@
         <v>30022</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>30022</v>
       </c>
@@ -1194,7 +1210,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>31</v>
@@ -1203,7 +1219,7 @@
         <v>30023</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>30023</v>
       </c>
@@ -1220,7 +1236,7 @@
         <v>18</v>
       </c>
       <c r="F25" s="3">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>32</v>
@@ -1229,7 +1245,7 @@
         <v>30024</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>30024</v>
       </c>
@@ -1246,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="F26" s="3">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>33</v>
@@ -1255,7 +1271,7 @@
         <v>30025</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>30025</v>
       </c>
@@ -1272,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="3">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>34</v>
@@ -1281,7 +1297,7 @@
         <v>30026</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>30026</v>
       </c>
@@ -1298,7 +1314,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="3">
-        <v>30</v>
+        <v>443</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>35</v>
@@ -1307,7 +1323,7 @@
         <v>30027</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>30027</v>
       </c>
@@ -1324,7 +1340,7 @@
         <v>18</v>
       </c>
       <c r="F29" s="3">
-        <v>50</v>
+        <v>602</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>36</v>
@@ -1333,7 +1349,7 @@
         <v>30028</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>30028</v>
       </c>
@@ -1350,7 +1366,7 @@
         <v>18</v>
       </c>
       <c r="F30" s="3">
-        <v>100</v>
+        <v>718</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>37</v>
@@ -1359,7 +1375,7 @@
         <v>30029</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>30029</v>
       </c>
@@ -1376,7 +1392,7 @@
         <v>18</v>
       </c>
       <c r="F31" s="3">
-        <v>130</v>
+        <v>946</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>38</v>
@@ -1385,7 +1401,7 @@
         <v>30030</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30030</v>
       </c>
@@ -1402,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="3">
-        <v>150</v>
+        <v>1121</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>39</v>
@@ -1411,7 +1427,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>30031</v>
       </c>
@@ -1428,7 +1444,7 @@
         <v>16</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>30</v>
@@ -1437,7 +1453,7 @@
         <v>30032</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>30032</v>
       </c>
@@ -1454,7 +1470,7 @@
         <v>16</v>
       </c>
       <c r="F34" s="3">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>31</v>
@@ -1463,7 +1479,7 @@
         <v>30033</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>30033</v>
       </c>
@@ -1480,7 +1496,7 @@
         <v>16</v>
       </c>
       <c r="F35" s="3">
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>32</v>
@@ -1489,7 +1505,7 @@
         <v>30034</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>30034</v>
       </c>
@@ -1506,7 +1522,7 @@
         <v>16</v>
       </c>
       <c r="F36" s="3">
-        <v>8</v>
+        <v>307</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>33</v>
@@ -1515,7 +1531,7 @@
         <v>30035</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>30035</v>
       </c>
@@ -1532,7 +1548,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="3">
-        <v>9</v>
+        <v>414</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>34</v>
@@ -1541,7 +1557,7 @@
         <v>30036</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>30036</v>
       </c>
@@ -1558,7 +1574,7 @@
         <v>16</v>
       </c>
       <c r="F38" s="3">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>35</v>
@@ -1567,7 +1583,7 @@
         <v>30037</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>30037</v>
       </c>
@@ -1584,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="3">
-        <v>15</v>
+        <v>686</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>36</v>
@@ -1593,7 +1609,7 @@
         <v>30038</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>30038</v>
       </c>
@@ -1610,7 +1626,7 @@
         <v>16</v>
       </c>
       <c r="F40" s="3">
-        <v>30</v>
+        <v>818</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>37</v>
@@ -1619,7 +1635,7 @@
         <v>30039</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>30039</v>
       </c>
@@ -1636,7 +1652,7 @@
         <v>16</v>
       </c>
       <c r="F41" s="3">
-        <v>50</v>
+        <v>1077</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>38</v>
@@ -1645,7 +1661,7 @@
         <v>30040</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>30040</v>
       </c>
@@ -1662,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="F42" s="3">
-        <v>80</v>
+        <v>1277</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>39</v>
@@ -1671,7 +1687,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>30041</v>
       </c>
@@ -1688,7 +1704,7 @@
         <v>17</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>30</v>
@@ -1697,7 +1713,7 @@
         <v>30042</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>30042</v>
       </c>
@@ -1714,7 +1730,7 @@
         <v>17</v>
       </c>
       <c r="F44" s="4">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>31</v>
@@ -1723,7 +1739,7 @@
         <v>30043</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>30043</v>
       </c>
@@ -1740,7 +1756,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="4">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>32</v>
@@ -1749,7 +1765,7 @@
         <v>30044</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>30044</v>
       </c>
@@ -1766,7 +1782,7 @@
         <v>17</v>
       </c>
       <c r="F46" s="4">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>33</v>
@@ -1775,7 +1791,7 @@
         <v>30045</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>30045</v>
       </c>
@@ -1792,7 +1808,7 @@
         <v>17</v>
       </c>
       <c r="F47" s="4">
-        <v>50</v>
+        <v>353</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>34</v>
@@ -1801,7 +1817,7 @@
         <v>30046</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>30046</v>
       </c>
@@ -1818,7 +1834,7 @@
         <v>17</v>
       </c>
       <c r="F48" s="4">
-        <v>75</v>
+        <v>431</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>35</v>
@@ -1827,7 +1843,7 @@
         <v>30047</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>30047</v>
       </c>
@@ -1844,7 +1860,7 @@
         <v>17</v>
       </c>
       <c r="F49" s="4">
-        <v>100</v>
+        <v>586</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>36</v>
@@ -1853,7 +1869,7 @@
         <v>30048</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>30048</v>
       </c>
@@ -1870,7 +1886,7 @@
         <v>17</v>
       </c>
       <c r="F50" s="4">
-        <v>130</v>
+        <v>698</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>37</v>
@@ -1879,7 +1895,7 @@
         <v>30049</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>30049</v>
       </c>
@@ -1896,7 +1912,7 @@
         <v>17</v>
       </c>
       <c r="F51" s="4">
-        <v>170</v>
+        <v>920</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>38</v>
@@ -1905,7 +1921,7 @@
         <v>30050</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>30050</v>
       </c>
@@ -1922,7 +1938,7 @@
         <v>17</v>
       </c>
       <c r="F52" s="4">
-        <v>250</v>
+        <v>1090</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>39</v>
@@ -1938,12 +1954,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1951,12 +1967,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grabDoll/config/artifact.xlsx
+++ b/grabDoll/config/artifact.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -579,7 +579,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/grabDoll/config/artifact.xlsx
+++ b/grabDoll/config/artifact.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="42">
   <si>
     <t>攻击力</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -195,6 +195,10 @@
   <si>
     <t>atk</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"20010":1,"20011":0,"20012":0,"20013":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,7 +583,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -667,7 +671,7 @@
         <v>168</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1">
         <v>30002</v>
